--- a/data/sdgs/SDG14.xlsx
+++ b/data/sdgs/SDG14.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Francesco/ZHAW/GitHub/keywords/data/sdgs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB9FA0CA-4BB2-4C46-A632-3718BE665AEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3839AFE-4497-894E-BE3C-85AA2EC391DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1400" yWindow="920" windowWidth="27840" windowHeight="16740" xr2:uid="{9EDD8E16-9A04-A54F-84B7-AB6117E49D66}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="16880" xr2:uid="{9EDD8E16-9A04-A54F-84B7-AB6117E49D66}"/>
   </bookViews>
   <sheets>
     <sheet name="SDG14" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="178">
   <si>
     <t>keyword_en</t>
   </si>
@@ -507,13 +507,76 @@
   </si>
   <si>
     <t>" Paläo-Ozeanografie"</t>
+  </si>
+  <si>
+    <t>" fisher"</t>
+  </si>
+  <si>
+    <t>artisanal</t>
+  </si>
+  <si>
+    <t>" fishing"</t>
+  </si>
+  <si>
+    <t>illigal, unreported, unregulated, destructive</t>
+  </si>
+  <si>
+    <t>" fish stock"</t>
+  </si>
+  <si>
+    <t>" ocean"</t>
+  </si>
+  <si>
+    <t>" coastal ecosystem"</t>
+  </si>
+  <si>
+    <t>" marine ecosystem"</t>
+  </si>
+  <si>
+    <t>" ocean ecosystem"</t>
+  </si>
+  <si>
+    <t>" Green Climate Fund"</t>
+  </si>
+  <si>
+    <t>" meaningul mitigation"</t>
+  </si>
+  <si>
+    <t>ocean, marine, sea, water</t>
+  </si>
+  <si>
+    <t>" marine acidity"</t>
+  </si>
+  <si>
+    <t>" sampling station"</t>
+  </si>
+  <si>
+    <t>" ecosystem-based approach"</t>
+  </si>
+  <si>
+    <t>" restoration"</t>
+  </si>
+  <si>
+    <t>acquaculture</t>
+  </si>
+  <si>
+    <t>" marine technology"</t>
+  </si>
+  <si>
+    <t>healthy, productive, " sustainable use"</t>
+  </si>
+  <si>
+    <t>" acquatic"</t>
+  </si>
+  <si>
+    <t>resource, ecosystem</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -521,16 +584,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE2EFDA"/>
+        <bgColor rgb="FFE2EFDA"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -538,12 +620,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFA9D08E"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFA9D08E"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -599,8 +697,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D6E311EF-4613-334E-BE15-D0A3105AC74F}" name="_SDG14" displayName="_SDG14" ref="A1:L37" totalsRowShown="0">
-  <autoFilter ref="A1:L37" xr:uid="{D6E311EF-4613-334E-BE15-D0A3105AC74F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D6E311EF-4613-334E-BE15-D0A3105AC74F}" name="_SDG14" displayName="_SDG14" ref="A1:L53" totalsRowShown="0">
+  <autoFilter ref="A1:L53" xr:uid="{D6E311EF-4613-334E-BE15-D0A3105AC74F}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L53">
+    <sortCondition ref="A1:A53"/>
+  </sortState>
   <tableColumns count="12">
     <tableColumn id="2" xr3:uid="{118EE533-E6A5-2D41-AA6F-483E302BD41A}" name="keyword_en" dataDxfId="11"/>
     <tableColumn id="3" xr3:uid="{9E89C2A4-A129-CF42-9C38-4E46A16699E1}" name="required_context_en" dataDxfId="10"/>
@@ -916,10 +1017,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E37FBDB-4F71-5847-BEBB-0E08A4AF3D9D}">
-  <dimension ref="A1:L37"/>
+  <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54:XFD54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -978,37 +1079,37 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="F2" t="s">
         <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I2" t="s">
         <v>12</v>
       </c>
       <c r="J2" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="K2" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="L2" t="s">
         <v>12</v>
@@ -1016,7 +1117,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>87</v>
+        <v>113</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
@@ -1025,7 +1126,7 @@
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>123</v>
+        <v>148</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
@@ -1034,7 +1135,7 @@
         <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="H3" t="s">
         <v>12</v>
@@ -1043,7 +1144,7 @@
         <v>12</v>
       </c>
       <c r="J3" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="K3" t="s">
         <v>12</v>
@@ -1054,7 +1155,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
@@ -1063,7 +1164,7 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
@@ -1072,7 +1173,7 @@
         <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H4" t="s">
         <v>12</v>
@@ -1081,7 +1182,7 @@
         <v>12</v>
       </c>
       <c r="J4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K4" t="s">
         <v>12</v>
@@ -1091,46 +1192,24 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s">
-        <v>125</v>
-      </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" t="s">
-        <v>12</v>
-      </c>
+      <c r="A5" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
@@ -1139,7 +1218,7 @@
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="E6" t="s">
         <v>12</v>
@@ -1148,7 +1227,7 @@
         <v>12</v>
       </c>
       <c r="G6" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="H6" t="s">
         <v>12</v>
@@ -1157,7 +1236,7 @@
         <v>12</v>
       </c>
       <c r="J6" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="K6" t="s">
         <v>12</v>
@@ -1168,7 +1247,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
@@ -1177,7 +1256,7 @@
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E7" t="s">
         <v>12</v>
@@ -1186,7 +1265,7 @@
         <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="H7" t="s">
         <v>12</v>
@@ -1195,7 +1274,7 @@
         <v>12</v>
       </c>
       <c r="J7" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="K7" t="s">
         <v>12</v>
@@ -1206,7 +1285,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
@@ -1215,7 +1294,7 @@
         <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E8" t="s">
         <v>12</v>
@@ -1224,7 +1303,7 @@
         <v>12</v>
       </c>
       <c r="G8" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H8" t="s">
         <v>12</v>
@@ -1233,7 +1312,7 @@
         <v>12</v>
       </c>
       <c r="J8" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K8" t="s">
         <v>12</v>
@@ -1244,7 +1323,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
@@ -1253,7 +1332,7 @@
         <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="E9" t="s">
         <v>12</v>
@@ -1262,7 +1341,7 @@
         <v>12</v>
       </c>
       <c r="G9" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="H9" t="s">
         <v>12</v>
@@ -1271,7 +1350,7 @@
         <v>12</v>
       </c>
       <c r="J9" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="K9" t="s">
         <v>12</v>
@@ -1282,7 +1361,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>
@@ -1291,7 +1370,7 @@
         <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E10" t="s">
         <v>12</v>
@@ -1300,7 +1379,7 @@
         <v>12</v>
       </c>
       <c r="G10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H10" t="s">
         <v>12</v>
@@ -1309,7 +1388,7 @@
         <v>12</v>
       </c>
       <c r="J10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K10" t="s">
         <v>12</v>
@@ -1320,7 +1399,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
@@ -1329,7 +1408,7 @@
         <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="E11" t="s">
         <v>12</v>
@@ -1338,7 +1417,7 @@
         <v>12</v>
       </c>
       <c r="G11" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="H11" t="s">
         <v>12</v>
@@ -1347,7 +1426,7 @@
         <v>12</v>
       </c>
       <c r="J11" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="K11" t="s">
         <v>12</v>
@@ -1357,46 +1436,26 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>96</v>
-      </c>
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" t="s">
-        <v>132</v>
-      </c>
-      <c r="E12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H12" t="s">
-        <v>12</v>
-      </c>
-      <c r="I12" t="s">
-        <v>12</v>
-      </c>
-      <c r="J12" t="s">
-        <v>34</v>
-      </c>
-      <c r="K12" t="s">
-        <v>12</v>
-      </c>
-      <c r="L12" t="s">
-        <v>12</v>
-      </c>
+      <c r="A12" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="B13" t="s">
         <v>12</v>
@@ -1405,7 +1464,7 @@
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="E13" t="s">
         <v>12</v>
@@ -1414,7 +1473,7 @@
         <v>12</v>
       </c>
       <c r="G13" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="H13" t="s">
         <v>12</v>
@@ -1423,7 +1482,7 @@
         <v>12</v>
       </c>
       <c r="J13" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="K13" t="s">
         <v>12</v>
@@ -1434,121 +1493,79 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="C14" t="s">
         <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="E14" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
         <v>12</v>
       </c>
       <c r="G14" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="H14" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I14" t="s">
         <v>12</v>
       </c>
       <c r="J14" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="K14" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="L14" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>99</v>
-      </c>
-      <c r="B15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" t="s">
-        <v>135</v>
-      </c>
-      <c r="E15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" t="s">
-        <v>42</v>
-      </c>
-      <c r="H15" t="s">
-        <v>12</v>
-      </c>
-      <c r="I15" t="s">
-        <v>12</v>
-      </c>
-      <c r="J15" t="s">
-        <v>43</v>
-      </c>
-      <c r="K15" t="s">
-        <v>12</v>
-      </c>
-      <c r="L15" t="s">
-        <v>12</v>
-      </c>
+      <c r="A15" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>100</v>
-      </c>
-      <c r="B16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" t="s">
-        <v>135</v>
-      </c>
-      <c r="E16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" t="s">
-        <v>42</v>
-      </c>
-      <c r="H16" t="s">
-        <v>12</v>
-      </c>
-      <c r="I16" t="s">
-        <v>12</v>
-      </c>
-      <c r="J16" t="s">
-        <v>43</v>
-      </c>
-      <c r="K16" t="s">
-        <v>12</v>
-      </c>
-      <c r="L16" t="s">
-        <v>12</v>
-      </c>
+      <c r="A16" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="B17" t="s">
         <v>12</v>
@@ -1557,7 +1574,7 @@
         <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="E17" t="s">
         <v>12</v>
@@ -1566,7 +1583,7 @@
         <v>12</v>
       </c>
       <c r="G17" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="H17" t="s">
         <v>12</v>
@@ -1575,7 +1592,7 @@
         <v>12</v>
       </c>
       <c r="J17" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="K17" t="s">
         <v>12</v>
@@ -1586,7 +1603,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B18" t="s">
         <v>12</v>
@@ -1595,7 +1612,7 @@
         <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E18" t="s">
         <v>12</v>
@@ -1604,7 +1621,7 @@
         <v>12</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H18" t="s">
         <v>12</v>
@@ -1613,7 +1630,7 @@
         <v>12</v>
       </c>
       <c r="J18" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K18" t="s">
         <v>12</v>
@@ -1624,7 +1641,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B19" t="s">
         <v>12</v>
@@ -1633,7 +1650,7 @@
         <v>12</v>
       </c>
       <c r="D19" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E19" t="s">
         <v>12</v>
@@ -1642,7 +1659,7 @@
         <v>12</v>
       </c>
       <c r="G19" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="H19" t="s">
         <v>12</v>
@@ -1651,7 +1668,7 @@
         <v>12</v>
       </c>
       <c r="J19" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="K19" t="s">
         <v>12</v>
@@ -1661,84 +1678,42 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>104</v>
-      </c>
-      <c r="B20" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" t="s">
-        <v>139</v>
-      </c>
-      <c r="E20" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" t="s">
-        <v>50</v>
-      </c>
-      <c r="H20" t="s">
-        <v>12</v>
-      </c>
-      <c r="I20" t="s">
-        <v>12</v>
-      </c>
-      <c r="J20" t="s">
-        <v>51</v>
-      </c>
-      <c r="K20" t="s">
-        <v>12</v>
-      </c>
-      <c r="L20" t="s">
-        <v>12</v>
-      </c>
+      <c r="A20" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>105</v>
-      </c>
-      <c r="B21" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" t="s">
-        <v>140</v>
-      </c>
-      <c r="E21" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" t="s">
-        <v>52</v>
-      </c>
-      <c r="H21" t="s">
-        <v>12</v>
-      </c>
-      <c r="I21" t="s">
-        <v>12</v>
-      </c>
-      <c r="J21" t="s">
-        <v>53</v>
-      </c>
-      <c r="K21" t="s">
-        <v>12</v>
-      </c>
-      <c r="L21" t="s">
-        <v>12</v>
-      </c>
+      <c r="A21" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="B22" t="s">
         <v>12</v>
@@ -1747,7 +1722,7 @@
         <v>12</v>
       </c>
       <c r="D22" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="E22" t="s">
         <v>12</v>
@@ -1756,7 +1731,7 @@
         <v>12</v>
       </c>
       <c r="G22" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="H22" t="s">
         <v>12</v>
@@ -1765,7 +1740,7 @@
         <v>12</v>
       </c>
       <c r="J22" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="K22" t="s">
         <v>12</v>
@@ -1776,7 +1751,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B23" t="s">
         <v>12</v>
@@ -1785,7 +1760,7 @@
         <v>12</v>
       </c>
       <c r="D23" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="E23" t="s">
         <v>12</v>
@@ -1794,7 +1769,7 @@
         <v>12</v>
       </c>
       <c r="G23" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="H23" t="s">
         <v>12</v>
@@ -1803,7 +1778,7 @@
         <v>12</v>
       </c>
       <c r="J23" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="K23" t="s">
         <v>12</v>
@@ -1813,46 +1788,24 @@
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>108</v>
-      </c>
-      <c r="B24" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" t="s">
-        <v>143</v>
-      </c>
-      <c r="E24" t="s">
-        <v>12</v>
-      </c>
-      <c r="F24" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" t="s">
-        <v>58</v>
-      </c>
-      <c r="H24" t="s">
-        <v>12</v>
-      </c>
-      <c r="I24" t="s">
-        <v>12</v>
-      </c>
-      <c r="J24" t="s">
-        <v>59</v>
-      </c>
-      <c r="K24" t="s">
-        <v>12</v>
-      </c>
-      <c r="L24" t="s">
-        <v>12</v>
-      </c>
+      <c r="A24" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B25" t="s">
         <v>12</v>
@@ -1861,7 +1814,7 @@
         <v>12</v>
       </c>
       <c r="D25" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E25" t="s">
         <v>12</v>
@@ -1870,7 +1823,7 @@
         <v>12</v>
       </c>
       <c r="G25" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="H25" t="s">
         <v>12</v>
@@ -1879,7 +1832,7 @@
         <v>12</v>
       </c>
       <c r="J25" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="K25" t="s">
         <v>12</v>
@@ -1890,7 +1843,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="B26" t="s">
         <v>12</v>
@@ -1899,7 +1852,7 @@
         <v>12</v>
       </c>
       <c r="D26" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="E26" t="s">
         <v>12</v>
@@ -1908,7 +1861,7 @@
         <v>12</v>
       </c>
       <c r="G26" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="H26" t="s">
         <v>12</v>
@@ -1917,7 +1870,7 @@
         <v>12</v>
       </c>
       <c r="J26" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="K26" t="s">
         <v>12</v>
@@ -1928,7 +1881,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="B27" t="s">
         <v>12</v>
@@ -1937,7 +1890,7 @@
         <v>12</v>
       </c>
       <c r="D27" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="E27" t="s">
         <v>12</v>
@@ -1946,7 +1899,7 @@
         <v>12</v>
       </c>
       <c r="G27" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="H27" t="s">
         <v>12</v>
@@ -1955,7 +1908,7 @@
         <v>12</v>
       </c>
       <c r="J27" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="K27" t="s">
         <v>12</v>
@@ -1965,46 +1918,24 @@
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>112</v>
-      </c>
-      <c r="B28" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" t="s">
-        <v>12</v>
-      </c>
-      <c r="D28" t="s">
-        <v>147</v>
-      </c>
-      <c r="E28" t="s">
-        <v>12</v>
-      </c>
-      <c r="F28" t="s">
-        <v>12</v>
-      </c>
-      <c r="G28" t="s">
-        <v>66</v>
-      </c>
-      <c r="H28" t="s">
-        <v>12</v>
-      </c>
-      <c r="I28" t="s">
-        <v>12</v>
-      </c>
-      <c r="J28" t="s">
-        <v>67</v>
-      </c>
-      <c r="K28" t="s">
-        <v>12</v>
-      </c>
-      <c r="L28" t="s">
-        <v>12</v>
-      </c>
+      <c r="A28" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B29" t="s">
         <v>12</v>
@@ -2013,7 +1944,7 @@
         <v>12</v>
       </c>
       <c r="D29" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="E29" t="s">
         <v>12</v>
@@ -2022,7 +1953,7 @@
         <v>12</v>
       </c>
       <c r="G29" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="H29" t="s">
         <v>12</v>
@@ -2031,7 +1962,7 @@
         <v>12</v>
       </c>
       <c r="J29" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="K29" t="s">
         <v>12</v>
@@ -2042,7 +1973,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="B30" t="s">
         <v>12</v>
@@ -2051,7 +1982,7 @@
         <v>12</v>
       </c>
       <c r="D30" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="E30" t="s">
         <v>12</v>
@@ -2060,7 +1991,7 @@
         <v>12</v>
       </c>
       <c r="G30" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="H30" t="s">
         <v>12</v>
@@ -2069,7 +2000,7 @@
         <v>12</v>
       </c>
       <c r="J30" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="K30" t="s">
         <v>12</v>
@@ -2080,7 +2011,7 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B31" t="s">
         <v>12</v>
@@ -2089,7 +2020,7 @@
         <v>12</v>
       </c>
       <c r="D31" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="E31" t="s">
         <v>12</v>
@@ -2098,7 +2029,7 @@
         <v>12</v>
       </c>
       <c r="G31" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="H31" t="s">
         <v>12</v>
@@ -2107,7 +2038,7 @@
         <v>12</v>
       </c>
       <c r="J31" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="K31" t="s">
         <v>12</v>
@@ -2118,7 +2049,7 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="B32" t="s">
         <v>12</v>
@@ -2127,7 +2058,7 @@
         <v>12</v>
       </c>
       <c r="D32" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="E32" t="s">
         <v>12</v>
@@ -2136,7 +2067,7 @@
         <v>12</v>
       </c>
       <c r="G32" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="H32" t="s">
         <v>12</v>
@@ -2145,7 +2076,7 @@
         <v>12</v>
       </c>
       <c r="J32" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="K32" t="s">
         <v>12</v>
@@ -2156,7 +2087,7 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B33" t="s">
         <v>12</v>
@@ -2165,7 +2096,7 @@
         <v>12</v>
       </c>
       <c r="D33" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E33" t="s">
         <v>12</v>
@@ -2174,7 +2105,7 @@
         <v>12</v>
       </c>
       <c r="G33" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H33" t="s">
         <v>12</v>
@@ -2183,7 +2114,7 @@
         <v>12</v>
       </c>
       <c r="J33" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K33" t="s">
         <v>12</v>
@@ -2193,46 +2124,24 @@
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>118</v>
-      </c>
-      <c r="B34" t="s">
-        <v>12</v>
-      </c>
-      <c r="C34" t="s">
-        <v>12</v>
-      </c>
-      <c r="D34" t="s">
-        <v>153</v>
-      </c>
-      <c r="E34" t="s">
-        <v>12</v>
-      </c>
-      <c r="F34" t="s">
-        <v>12</v>
-      </c>
-      <c r="G34" t="s">
-        <v>78</v>
-      </c>
-      <c r="H34" t="s">
-        <v>12</v>
-      </c>
-      <c r="I34" t="s">
-        <v>12</v>
-      </c>
-      <c r="J34" t="s">
-        <v>79</v>
-      </c>
-      <c r="K34" t="s">
-        <v>12</v>
-      </c>
-      <c r="L34" t="s">
-        <v>12</v>
-      </c>
+      <c r="A34" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="B35" t="s">
         <v>12</v>
@@ -2241,7 +2150,7 @@
         <v>12</v>
       </c>
       <c r="D35" t="s">
-        <v>154</v>
+        <v>128</v>
       </c>
       <c r="E35" t="s">
         <v>12</v>
@@ -2250,7 +2159,7 @@
         <v>12</v>
       </c>
       <c r="G35" t="s">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="H35" t="s">
         <v>12</v>
@@ -2259,7 +2168,7 @@
         <v>12</v>
       </c>
       <c r="J35" t="s">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="K35" t="s">
         <v>12</v>
@@ -2269,80 +2178,544 @@
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>120</v>
-      </c>
-      <c r="B36" t="s">
-        <v>12</v>
-      </c>
-      <c r="C36" t="s">
-        <v>12</v>
-      </c>
-      <c r="D36" t="s">
-        <v>155</v>
-      </c>
-      <c r="E36" t="s">
-        <v>12</v>
-      </c>
-      <c r="F36" t="s">
-        <v>12</v>
-      </c>
-      <c r="G36" t="s">
-        <v>82</v>
-      </c>
-      <c r="H36" t="s">
-        <v>12</v>
-      </c>
-      <c r="I36" t="s">
-        <v>12</v>
-      </c>
-      <c r="J36" t="s">
-        <v>83</v>
-      </c>
-      <c r="K36" t="s">
-        <v>12</v>
-      </c>
-      <c r="L36" t="s">
-        <v>12</v>
-      </c>
+      <c r="A36" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
+        <v>109</v>
+      </c>
+      <c r="B37" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" t="s">
+        <v>144</v>
+      </c>
+      <c r="E37" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" t="s">
+        <v>60</v>
+      </c>
+      <c r="H37" t="s">
+        <v>12</v>
+      </c>
+      <c r="I37" t="s">
+        <v>12</v>
+      </c>
+      <c r="J37" t="s">
+        <v>61</v>
+      </c>
+      <c r="K37" t="s">
+        <v>12</v>
+      </c>
+      <c r="L37" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>97</v>
+      </c>
+      <c r="B38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" t="s">
+        <v>133</v>
+      </c>
+      <c r="E38" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" t="s">
+        <v>35</v>
+      </c>
+      <c r="H38" t="s">
+        <v>12</v>
+      </c>
+      <c r="I38" t="s">
+        <v>12</v>
+      </c>
+      <c r="J38" t="s">
+        <v>36</v>
+      </c>
+      <c r="K38" t="s">
+        <v>12</v>
+      </c>
+      <c r="L38" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>88</v>
+      </c>
+      <c r="B41" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" t="s">
+        <v>124</v>
+      </c>
+      <c r="E41" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41" t="s">
+        <v>12</v>
+      </c>
+      <c r="G41" t="s">
+        <v>17</v>
+      </c>
+      <c r="H41" t="s">
+        <v>12</v>
+      </c>
+      <c r="I41" t="s">
+        <v>12</v>
+      </c>
+      <c r="J41" t="s">
+        <v>18</v>
+      </c>
+      <c r="K41" t="s">
+        <v>12</v>
+      </c>
+      <c r="L41" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>89</v>
+      </c>
+      <c r="B42" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42" t="s">
+        <v>125</v>
+      </c>
+      <c r="E42" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42" t="s">
+        <v>12</v>
+      </c>
+      <c r="G42" t="s">
+        <v>19</v>
+      </c>
+      <c r="H42" t="s">
+        <v>12</v>
+      </c>
+      <c r="I42" t="s">
+        <v>12</v>
+      </c>
+      <c r="J42" t="s">
+        <v>20</v>
+      </c>
+      <c r="K42" t="s">
+        <v>12</v>
+      </c>
+      <c r="L42" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>101</v>
+      </c>
+      <c r="B43" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" t="s">
+        <v>136</v>
+      </c>
+      <c r="E43" t="s">
+        <v>12</v>
+      </c>
+      <c r="F43" t="s">
+        <v>12</v>
+      </c>
+      <c r="G43" t="s">
+        <v>44</v>
+      </c>
+      <c r="H43" t="s">
+        <v>12</v>
+      </c>
+      <c r="I43" t="s">
+        <v>12</v>
+      </c>
+      <c r="J43" t="s">
+        <v>45</v>
+      </c>
+      <c r="K43" t="s">
+        <v>12</v>
+      </c>
+      <c r="L43" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
         <v>121</v>
       </c>
-      <c r="B37" t="s">
-        <v>12</v>
-      </c>
-      <c r="C37" t="s">
-        <v>12</v>
-      </c>
-      <c r="D37" t="s">
+      <c r="B44" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" t="s">
         <v>156</v>
       </c>
-      <c r="E37" t="s">
-        <v>12</v>
-      </c>
-      <c r="F37" t="s">
-        <v>12</v>
-      </c>
-      <c r="G37" t="s">
+      <c r="E44" t="s">
+        <v>12</v>
+      </c>
+      <c r="F44" t="s">
+        <v>12</v>
+      </c>
+      <c r="G44" t="s">
         <v>84</v>
       </c>
-      <c r="H37" t="s">
-        <v>12</v>
-      </c>
-      <c r="I37" t="s">
-        <v>12</v>
-      </c>
-      <c r="J37" t="s">
+      <c r="H44" t="s">
+        <v>12</v>
+      </c>
+      <c r="I44" t="s">
+        <v>12</v>
+      </c>
+      <c r="J44" t="s">
         <v>85</v>
       </c>
-      <c r="K37" t="s">
-        <v>12</v>
-      </c>
-      <c r="L37" t="s">
-        <v>12</v>
-      </c>
+      <c r="K44" t="s">
+        <v>12</v>
+      </c>
+      <c r="L44" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>117</v>
+      </c>
+      <c r="B47" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47" t="s">
+        <v>152</v>
+      </c>
+      <c r="E47" t="s">
+        <v>12</v>
+      </c>
+      <c r="F47" t="s">
+        <v>12</v>
+      </c>
+      <c r="G47" t="s">
+        <v>76</v>
+      </c>
+      <c r="H47" t="s">
+        <v>12</v>
+      </c>
+      <c r="I47" t="s">
+        <v>12</v>
+      </c>
+      <c r="J47" t="s">
+        <v>77</v>
+      </c>
+      <c r="K47" t="s">
+        <v>12</v>
+      </c>
+      <c r="L47" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>115</v>
+      </c>
+      <c r="B48" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" t="s">
+        <v>12</v>
+      </c>
+      <c r="D48" t="s">
+        <v>150</v>
+      </c>
+      <c r="E48" t="s">
+        <v>12</v>
+      </c>
+      <c r="F48" t="s">
+        <v>12</v>
+      </c>
+      <c r="G48" t="s">
+        <v>72</v>
+      </c>
+      <c r="H48" t="s">
+        <v>12</v>
+      </c>
+      <c r="I48" t="s">
+        <v>12</v>
+      </c>
+      <c r="J48" t="s">
+        <v>73</v>
+      </c>
+      <c r="K48" t="s">
+        <v>12</v>
+      </c>
+      <c r="L48" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>102</v>
+      </c>
+      <c r="B49" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49" t="s">
+        <v>137</v>
+      </c>
+      <c r="E49" t="s">
+        <v>12</v>
+      </c>
+      <c r="F49" t="s">
+        <v>12</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>12</v>
+      </c>
+      <c r="I49" t="s">
+        <v>12</v>
+      </c>
+      <c r="J49" t="s">
+        <v>47</v>
+      </c>
+      <c r="K49" t="s">
+        <v>12</v>
+      </c>
+      <c r="L49" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>116</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C50" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50" t="s">
+        <v>151</v>
+      </c>
+      <c r="E50" t="s">
+        <v>12</v>
+      </c>
+      <c r="F50" t="s">
+        <v>12</v>
+      </c>
+      <c r="G50" t="s">
+        <v>74</v>
+      </c>
+      <c r="H50" t="s">
+        <v>12</v>
+      </c>
+      <c r="I50" t="s">
+        <v>12</v>
+      </c>
+      <c r="J50" t="s">
+        <v>75</v>
+      </c>
+      <c r="K50" t="s">
+        <v>12</v>
+      </c>
+      <c r="L50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>86</v>
+      </c>
+      <c r="B51" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51" t="s">
+        <v>122</v>
+      </c>
+      <c r="E51" t="s">
+        <v>12</v>
+      </c>
+      <c r="F51" t="s">
+        <v>12</v>
+      </c>
+      <c r="G51" t="s">
+        <v>13</v>
+      </c>
+      <c r="H51" t="s">
+        <v>12</v>
+      </c>
+      <c r="I51" t="s">
+        <v>12</v>
+      </c>
+      <c r="J51" t="s">
+        <v>14</v>
+      </c>
+      <c r="K51" t="s">
+        <v>12</v>
+      </c>
+      <c r="L51" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A52" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A53" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/data/sdgs/SDG14.xlsx
+++ b/data/sdgs/SDG14.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Francesco/ZHAW/GitHub/keywords/data/sdgs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3839AFE-4497-894E-BE3C-85AA2EC391DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0066AFB5-4FB9-D440-B0BA-FB292161A97F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="16880" xr2:uid="{9EDD8E16-9A04-A54F-84B7-AB6117E49D66}"/>
   </bookViews>
@@ -635,13 +635,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1019,8 +1017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E37FBDB-4F71-5847-BEBB-0E08A4AF3D9D}">
   <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54:XFD54"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1192,20 +1190,9 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>163</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -1436,22 +1423,12 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+      <c r="A12" t="s">
         <v>171</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>168</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -1530,38 +1507,17 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+      <c r="A15" t="s">
         <v>161</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+      <c r="A16" t="s">
         <v>157</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
         <v>158</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
@@ -1678,38 +1634,17 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+      <c r="A20" t="s">
         <v>159</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" t="s">
         <v>160</v>
       </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+      <c r="A21" t="s">
         <v>166</v>
       </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
@@ -1788,20 +1723,9 @@
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
+      <c r="A24" t="s">
         <v>169</v>
       </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
@@ -1918,20 +1842,9 @@
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
+      <c r="A28" t="s">
         <v>164</v>
       </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
@@ -2124,20 +2037,9 @@
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
+      <c r="A34" t="s">
         <v>174</v>
       </c>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
@@ -2178,22 +2080,12 @@
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
+      <c r="A36" t="s">
         <v>167</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" t="s">
         <v>168</v>
       </c>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
@@ -2272,38 +2164,17 @@
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
+      <c r="A39" t="s">
         <v>165</v>
       </c>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
+      <c r="A40" t="s">
         <v>162</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" t="s">
         <v>175</v>
       </c>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
@@ -2458,40 +2329,20 @@
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
+      <c r="A45" t="s">
         <v>172</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
-      <c r="L45" s="1"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
+      <c r="A46" t="s">
         <v>170</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" t="s">
         <v>168</v>
       </c>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-      <c r="L46" s="1"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
@@ -2536,7 +2387,7 @@
         <v>115</v>
       </c>
       <c r="B48" t="s">
-        <v>12</v>
+        <v>168</v>
       </c>
       <c r="C48" t="s">
         <v>12</v>
@@ -2611,7 +2462,7 @@
       <c r="A50" t="s">
         <v>116</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C50" t="s">
@@ -2684,38 +2535,17 @@
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A52" s="4" t="s">
+      <c r="A52" t="s">
         <v>173</v>
       </c>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
-      <c r="I52" s="1"/>
-      <c r="J52" s="1"/>
-      <c r="K52" s="1"/>
-      <c r="L52" s="1"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A53" s="5" t="s">
+      <c r="A53" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" t="s">
         <v>177</v>
       </c>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
-      <c r="I53" s="1"/>
-      <c r="J53" s="1"/>
-      <c r="K53" s="1"/>
-      <c r="L53" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/data/sdgs/SDG14.xlsx
+++ b/data/sdgs/SDG14.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Francesco/ZHAW/GitHub/keywords/data/sdgs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0066AFB5-4FB9-D440-B0BA-FB292161A97F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A1EBFFD-EB18-0743-AA0A-49D1C091834F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="16880" xr2:uid="{9EDD8E16-9A04-A54F-84B7-AB6117E49D66}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="180">
   <si>
     <t>keyword_en</t>
   </si>
@@ -570,6 +570,12 @@
   </si>
   <si>
     <t>resource, ecosystem</t>
+  </si>
+  <si>
+    <t>freshwater</t>
+  </si>
+  <si>
+    <t>Frischwasser</t>
   </si>
 </sst>
 </file>
@@ -635,11 +641,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -695,8 +702,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D6E311EF-4613-334E-BE15-D0A3105AC74F}" name="_SDG14" displayName="_SDG14" ref="A1:L53" totalsRowShown="0">
-  <autoFilter ref="A1:L53" xr:uid="{D6E311EF-4613-334E-BE15-D0A3105AC74F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D6E311EF-4613-334E-BE15-D0A3105AC74F}" name="_SDG14" displayName="_SDG14" ref="A1:L54" totalsRowShown="0">
+  <autoFilter ref="A1:L54" xr:uid="{D6E311EF-4613-334E-BE15-D0A3105AC74F}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L53">
     <sortCondition ref="A1:A53"/>
   </sortState>
@@ -1015,10 +1022,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E37FBDB-4F71-5847-BEBB-0E08A4AF3D9D}">
-  <dimension ref="A1:L53"/>
+  <dimension ref="A1:L54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2547,8 +2554,27 @@
         <v>177</v>
       </c>
     </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A54" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="4"/>
+      <c r="K54" s="4"/>
+      <c r="L54" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
